--- a/data/course/resultat_kurs_2020.xlsx
+++ b/data/course/resultat_kurs_2020.xlsx
@@ -5,24 +5,24 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/said/Desktop/exel data/Resultat för kurser (YH-utbildningar upp till 99 poäng)/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/said/Documents/github/DataVisualisering_Projekt_YhKollen_G1/data/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11BA9333-6057-224C-B6D2-A3C911FEE06D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AEFA86C-9F12-6E43-9C65-43F4AAF93658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{D5A1FCBF-B9C0-40F8-8665-3732FDDAF628}"/>
+    <workbookView xWindow="16160" yWindow="500" windowWidth="12640" windowHeight="11060" xr2:uid="{D5A1FCBF-B9C0-40F8-8665-3732FDDAF628}"/>
   </bookViews>
   <sheets>
     <sheet name="Lista beviljade utbildningar" sheetId="1" r:id="rId1"/>
     <sheet name="Definitioner och förklaringar" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Lista beviljade utbildningar'!$A$1:$I$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Lista beviljade utbildningar'!$A$1:$G$1</definedName>
     <definedName name="Bedömning">#REF!</definedName>
     <definedName name="Beslut">#REF!</definedName>
     <definedName name="Utb.områden">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="207">
   <si>
     <t>Utbildningsnamn</t>
   </si>
@@ -586,9 +591,6 @@
     <t>Sunne</t>
   </si>
   <si>
-    <t>Utbildningsnummer</t>
-  </si>
-  <si>
     <t>Utbildningsområde</t>
   </si>
   <si>
@@ -598,309 +600,6 @@
     <t>Futuregames Game Engines</t>
   </si>
   <si>
-    <t>YH01239</t>
-  </si>
-  <si>
-    <t>YH01249</t>
-  </si>
-  <si>
-    <t>YH01247</t>
-  </si>
-  <si>
-    <t>YH01242</t>
-  </si>
-  <si>
-    <t>YH01241</t>
-  </si>
-  <si>
-    <t>YH01250</t>
-  </si>
-  <si>
-    <t>YH01251</t>
-  </si>
-  <si>
-    <t>YH01315</t>
-  </si>
-  <si>
-    <t>YH01289</t>
-  </si>
-  <si>
-    <t>YH01248</t>
-  </si>
-  <si>
-    <t>YH01246</t>
-  </si>
-  <si>
-    <t>YH01235</t>
-  </si>
-  <si>
-    <t>YH01245</t>
-  </si>
-  <si>
-    <t>YH01244</t>
-  </si>
-  <si>
-    <t>YH01252</t>
-  </si>
-  <si>
-    <t>YH01253</t>
-  </si>
-  <si>
-    <t>YH01238</t>
-  </si>
-  <si>
-    <t>YH01316</t>
-  </si>
-  <si>
-    <t>YH01236</t>
-  </si>
-  <si>
-    <t>YH01237</t>
-  </si>
-  <si>
-    <t>YH01291</t>
-  </si>
-  <si>
-    <t>YH01240</t>
-  </si>
-  <si>
-    <t>YH01255</t>
-  </si>
-  <si>
-    <t>YH01286</t>
-  </si>
-  <si>
-    <t>YH01254</t>
-  </si>
-  <si>
-    <t>YH01260</t>
-  </si>
-  <si>
-    <t>YH01256</t>
-  </si>
-  <si>
-    <t>YH01269</t>
-  </si>
-  <si>
-    <t>YH01268</t>
-  </si>
-  <si>
-    <t>YH01266</t>
-  </si>
-  <si>
-    <t>YH01257</t>
-  </si>
-  <si>
-    <t>YH01267</t>
-  </si>
-  <si>
-    <t>YH01264</t>
-  </si>
-  <si>
-    <t>YH01243</t>
-  </si>
-  <si>
-    <t>YH01261</t>
-  </si>
-  <si>
-    <t>YH01258</t>
-  </si>
-  <si>
-    <t>YH01270</t>
-  </si>
-  <si>
-    <t>YH01262</t>
-  </si>
-  <si>
-    <t>YH01265</t>
-  </si>
-  <si>
-    <t>YH01259</t>
-  </si>
-  <si>
-    <t>YH01263</t>
-  </si>
-  <si>
-    <t>YH01272</t>
-  </si>
-  <si>
-    <t>YH01271</t>
-  </si>
-  <si>
-    <t>YH01273</t>
-  </si>
-  <si>
-    <t>YH01283</t>
-  </si>
-  <si>
-    <t>YH01285</t>
-  </si>
-  <si>
-    <t>YH01274</t>
-  </si>
-  <si>
-    <t>YH01276</t>
-  </si>
-  <si>
-    <t>YH01277</t>
-  </si>
-  <si>
-    <t>YH01281</t>
-  </si>
-  <si>
-    <t>YH01282</t>
-  </si>
-  <si>
-    <t>YH01275</t>
-  </si>
-  <si>
-    <t>YH01280</t>
-  </si>
-  <si>
-    <t>YH01278</t>
-  </si>
-  <si>
-    <t>YH01284</t>
-  </si>
-  <si>
-    <t>YH01279</t>
-  </si>
-  <si>
-    <t>YH01288</t>
-  </si>
-  <si>
-    <t>YH01287</t>
-  </si>
-  <si>
-    <t>YH01290</t>
-  </si>
-  <si>
-    <t>YH01292</t>
-  </si>
-  <si>
-    <t>YH01293</t>
-  </si>
-  <si>
-    <t>YH01295</t>
-  </si>
-  <si>
-    <t>YH01300</t>
-  </si>
-  <si>
-    <t>YH01302</t>
-  </si>
-  <si>
-    <t>YH01304</t>
-  </si>
-  <si>
-    <t>YH01298</t>
-  </si>
-  <si>
-    <t>YH01305</t>
-  </si>
-  <si>
-    <t>YH01299</t>
-  </si>
-  <si>
-    <t>YH01301</t>
-  </si>
-  <si>
-    <t>YH01296</t>
-  </si>
-  <si>
-    <t>YH01303</t>
-  </si>
-  <si>
-    <t>YH01297</t>
-  </si>
-  <si>
-    <t>YH01294</t>
-  </si>
-  <si>
-    <t>YH01306</t>
-  </si>
-  <si>
-    <t>YH01307</t>
-  </si>
-  <si>
-    <t>YH01308</t>
-  </si>
-  <si>
-    <t>YH01327</t>
-  </si>
-  <si>
-    <t>YH01313</t>
-  </si>
-  <si>
-    <t>YH01330</t>
-  </si>
-  <si>
-    <t>YH01314</t>
-  </si>
-  <si>
-    <t>YH01321</t>
-  </si>
-  <si>
-    <t>YH01309</t>
-  </si>
-  <si>
-    <t>YH01312</t>
-  </si>
-  <si>
-    <t>YH01325</t>
-  </si>
-  <si>
-    <t>YH01318</t>
-  </si>
-  <si>
-    <t>YH01335</t>
-  </si>
-  <si>
-    <t>YH01317</t>
-  </si>
-  <si>
-    <t>YH01311</t>
-  </si>
-  <si>
-    <t>YH01333</t>
-  </si>
-  <si>
-    <t>YH01320</t>
-  </si>
-  <si>
-    <t>YH01310</t>
-  </si>
-  <si>
-    <t>YH01329</t>
-  </si>
-  <si>
-    <t>YH01324</t>
-  </si>
-  <si>
-    <t>YH01319</t>
-  </si>
-  <si>
-    <t>YH01332</t>
-  </si>
-  <si>
-    <t>YH01331</t>
-  </si>
-  <si>
-    <t>YH01326</t>
-  </si>
-  <si>
-    <t>YH01334</t>
-  </si>
-  <si>
-    <t>YH01323</t>
-  </si>
-  <si>
-    <t>YH01328</t>
-  </si>
-  <si>
-    <t>YH01322</t>
-  </si>
-  <si>
     <t>Yrkesakademin YH AB</t>
   </si>
   <si>
@@ -910,12 +609,6 @@
     <t>YH-poäng</t>
   </si>
   <si>
-    <t>Platser med start 2020</t>
-  </si>
-  <si>
-    <t>Platser med start 2021</t>
-  </si>
-  <si>
     <t>Definitioner och förklaringar</t>
   </si>
   <si>
@@ -968,6 +661,9 @@
   </si>
   <si>
     <t>2020</t>
+  </si>
+  <si>
+    <t>Antal beviljade platser 1</t>
   </si>
 </sst>
 </file>
@@ -1443,2993 +1139,2684 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2A5C9BD-4E5C-4650-9BA8-10678C62021C}">
-  <dimension ref="A1:J102"/>
+  <dimension ref="A1:H102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J102"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="57.5" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="74.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="57.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="19.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.5" style="13"/>
+    <col min="3" max="3" width="36" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="19.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.5" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>308</v>
-      </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="14" t="s">
-        <v>290</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>291</v>
-      </c>
-      <c r="I1" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="J1" s="10" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D1" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="15">
+        <v>15</v>
+      </c>
+      <c r="E2" s="15">
+        <v>20</v>
+      </c>
+      <c r="F2" s="12">
         <v>60</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="11" t="s">
+      <c r="G2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="15">
-        <v>15</v>
-      </c>
-      <c r="H2" s="15">
-        <v>20</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H2" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="15">
+        <v>6</v>
+      </c>
+      <c r="E3" s="15">
+        <v>6</v>
+      </c>
+      <c r="F3" s="12">
         <v>40</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="11" t="s">
+      <c r="G3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="15">
-        <v>6</v>
-      </c>
-      <c r="H3" s="15">
-        <v>6</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H3" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="15">
+        <v>30</v>
+      </c>
+      <c r="E4" s="15">
         <v>60</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>306</v>
-      </c>
-      <c r="G4" s="15">
-        <v>30</v>
-      </c>
-      <c r="H4" s="15">
+      <c r="F4" s="12">
         <v>60</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G4" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="15">
+        <v>30</v>
+      </c>
+      <c r="E5" s="15">
+        <v>30</v>
+      </c>
+      <c r="F5" s="12">
         <v>20</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="11" t="s">
+      <c r="G5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="15">
-        <v>30</v>
-      </c>
-      <c r="H5" s="15">
-        <v>30</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H5" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="15">
+        <v>25</v>
+      </c>
+      <c r="E6" s="15">
+        <v>50</v>
+      </c>
+      <c r="F6" s="12">
         <v>60</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="11" t="s">
+      <c r="G6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="15">
-        <v>25</v>
-      </c>
-      <c r="H6" s="15">
-        <v>50</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H6" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="15">
+        <v>18</v>
+      </c>
+      <c r="E7" s="15">
+        <v>18</v>
+      </c>
+      <c r="F7" s="12">
         <v>60</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>306</v>
-      </c>
-      <c r="G7" s="15">
-        <v>18</v>
-      </c>
-      <c r="H7" s="15">
-        <v>18</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G7" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="12">
-        <v>30</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="11" t="s">
+      <c r="C8" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="15">
+        <v>25</v>
+      </c>
+      <c r="E8" s="15">
+        <v>50</v>
+      </c>
+      <c r="F8" s="12">
+        <v>30</v>
+      </c>
+      <c r="G8" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="15">
-        <v>25</v>
-      </c>
-      <c r="H8" s="15">
-        <v>50</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="J8" s="13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H8" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>4</v>
+        <v>150</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="15">
+        <v>20</v>
+      </c>
+      <c r="E9" s="15">
+        <v>80</v>
+      </c>
+      <c r="F9" s="12">
         <v>15</v>
       </c>
-      <c r="D9" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="E9" s="11" t="s">
+      <c r="G9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="15">
-        <v>20</v>
-      </c>
-      <c r="H9" s="15">
-        <v>80</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="J9" s="13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H9" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>4</v>
+        <v>109</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="15">
+        <v>0</v>
+      </c>
+      <c r="E10" s="15">
+        <v>56</v>
+      </c>
+      <c r="F10" s="12">
         <v>75</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="E10" s="11" t="s">
+      <c r="G10" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="G10" s="15">
-        <v>0</v>
-      </c>
-      <c r="H10" s="15">
-        <v>56</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="J10" s="13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H10" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="15">
+        <v>30</v>
+      </c>
+      <c r="E11" s="15">
+        <v>60</v>
+      </c>
+      <c r="F11" s="12">
         <v>50</v>
       </c>
-      <c r="D11" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>306</v>
-      </c>
-      <c r="G11" s="15">
-        <v>30</v>
-      </c>
-      <c r="H11" s="15">
-        <v>60</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="J11" s="13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G11" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="15">
+        <v>30</v>
+      </c>
+      <c r="E12" s="15">
+        <v>30</v>
+      </c>
+      <c r="F12" s="12">
         <v>75</v>
       </c>
-      <c r="D12" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="15">
-        <v>30</v>
-      </c>
-      <c r="H12" s="15">
-        <v>30</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="J12" s="13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G12" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="15">
+        <v>20</v>
+      </c>
+      <c r="E13" s="15">
+        <v>20</v>
+      </c>
+      <c r="F13" s="12">
         <v>80</v>
       </c>
-      <c r="D13" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="11" t="s">
+      <c r="G13" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G13" s="15">
-        <v>20</v>
-      </c>
-      <c r="H13" s="15">
-        <v>20</v>
-      </c>
-      <c r="I13" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="J13" s="13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H13" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="12">
-        <v>30</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>306</v>
-      </c>
-      <c r="G14" s="15">
+      <c r="C14" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="15">
         <v>20</v>
       </c>
-      <c r="H14" s="15">
+      <c r="E14" s="15">
         <v>40</v>
       </c>
-      <c r="I14" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="J14" s="13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F14" s="12">
+        <v>30</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="15">
         <v>25</v>
       </c>
-      <c r="D15" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="15">
+        <v>25</v>
+      </c>
+      <c r="F15" s="12">
+        <v>25</v>
+      </c>
+      <c r="G15" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="15">
-        <v>25</v>
-      </c>
-      <c r="H15" s="15">
-        <v>25</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="J15" s="13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H15" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="15">
+        <v>25</v>
+      </c>
+      <c r="E16" s="15">
         <v>50</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="F16" s="12">
+        <v>50</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="11" t="s">
         <v>20</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" s="15">
-        <v>25</v>
-      </c>
-      <c r="H16" s="15">
-        <v>50</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="J16" s="13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="11" t="s">
-        <v>4</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="15">
+        <v>25</v>
+      </c>
+      <c r="E17" s="15">
         <v>50</v>
       </c>
-      <c r="D17" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="11" t="s">
+      <c r="F17" s="12">
+        <v>50</v>
+      </c>
+      <c r="G17" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="15">
-        <v>25</v>
-      </c>
-      <c r="H17" s="15">
-        <v>50</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="J17" s="13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H17" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="12">
-        <v>30</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="11" t="s">
+      <c r="C18" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="15">
+        <v>30</v>
+      </c>
+      <c r="E18" s="15">
+        <v>30</v>
+      </c>
+      <c r="F18" s="12">
+        <v>30</v>
+      </c>
+      <c r="G18" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="15">
-        <v>30</v>
-      </c>
-      <c r="H18" s="15">
-        <v>30</v>
-      </c>
-      <c r="I18" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="J18" s="13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H18" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>4</v>
+        <v>150</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="15">
+        <v>20</v>
+      </c>
+      <c r="E19" s="15">
+        <v>80</v>
+      </c>
+      <c r="F19" s="12">
         <v>15</v>
       </c>
-      <c r="D19" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="E19" s="11" t="s">
+      <c r="G19" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G19" s="15">
-        <v>20</v>
-      </c>
-      <c r="H19" s="15">
-        <v>80</v>
-      </c>
-      <c r="I19" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="J19" s="13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H19" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="15">
+        <v>25</v>
+      </c>
+      <c r="E20" s="15">
+        <v>25</v>
+      </c>
+      <c r="F20" s="12">
         <v>75</v>
       </c>
-      <c r="D20" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="11" t="s">
+      <c r="G20" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G20" s="15">
-        <v>25</v>
-      </c>
-      <c r="H20" s="15">
-        <v>25</v>
-      </c>
-      <c r="I20" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="J20" s="13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H20" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="15">
+        <v>40</v>
+      </c>
+      <c r="E21" s="15">
         <v>80</v>
       </c>
-      <c r="D21" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>306</v>
-      </c>
-      <c r="G21" s="15">
-        <v>40</v>
-      </c>
-      <c r="H21" s="15">
+      <c r="F21" s="12">
         <v>80</v>
       </c>
-      <c r="I21" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="J21" s="13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G21" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
-        <v>4</v>
+        <v>109</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="15">
+        <v>0</v>
+      </c>
+      <c r="E22" s="15">
+        <v>56</v>
+      </c>
+      <c r="F22" s="12">
         <v>75</v>
       </c>
-      <c r="D22" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="E22" s="11" t="s">
+      <c r="G22" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="G22" s="15">
-        <v>0</v>
-      </c>
-      <c r="H22" s="15">
-        <v>56</v>
-      </c>
-      <c r="I22" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="J22" s="13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H22" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="12">
-        <v>30</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" s="11" t="s">
+      <c r="C23" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="15">
+        <v>20</v>
+      </c>
+      <c r="E23" s="15">
+        <v>20</v>
+      </c>
+      <c r="F23" s="12">
+        <v>30</v>
+      </c>
+      <c r="G23" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G23" s="15">
-        <v>20</v>
-      </c>
-      <c r="H23" s="15">
-        <v>20</v>
-      </c>
-      <c r="I23" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="J23" s="13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H23" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="15">
+        <v>40</v>
+      </c>
+      <c r="E24" s="15">
+        <v>80</v>
+      </c>
+      <c r="F24" s="12">
         <v>65</v>
       </c>
-      <c r="D24" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>306</v>
-      </c>
-      <c r="G24" s="15">
-        <v>40</v>
-      </c>
-      <c r="H24" s="15">
-        <v>80</v>
-      </c>
-      <c r="I24" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="J24" s="13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G24" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
-        <v>47</v>
+        <v>105</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="C25" s="12">
-        <v>30</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="E25" s="11" t="s">
+      <c r="C25" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="15">
+        <v>0</v>
+      </c>
+      <c r="E25" s="15">
+        <v>30</v>
+      </c>
+      <c r="F25" s="12">
+        <v>30</v>
+      </c>
+      <c r="G25" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="G25" s="15">
-        <v>0</v>
-      </c>
-      <c r="H25" s="15">
-        <v>30</v>
-      </c>
-      <c r="I25" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="J25" s="13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H25" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="12">
+      <c r="C26" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="15">
+        <v>20</v>
+      </c>
+      <c r="E26" s="15">
+        <v>20</v>
+      </c>
+      <c r="F26" s="12">
         <v>25</v>
       </c>
-      <c r="D26" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>306</v>
-      </c>
-      <c r="G26" s="15">
-        <v>20</v>
-      </c>
-      <c r="H26" s="15">
-        <v>20</v>
-      </c>
-      <c r="I26" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="J26" s="13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G26" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="12">
+      <c r="C27" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="15">
+        <v>40</v>
+      </c>
+      <c r="E27" s="15">
+        <v>80</v>
+      </c>
+      <c r="F27" s="12">
         <v>60</v>
       </c>
-      <c r="D27" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E27" s="11" t="s">
+      <c r="G27" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="15">
-        <v>40</v>
-      </c>
-      <c r="H27" s="15">
-        <v>80</v>
-      </c>
-      <c r="I27" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="J27" s="13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H27" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="12">
-        <v>30</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E28" s="11" t="s">
+      <c r="C28" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="15">
+        <v>40</v>
+      </c>
+      <c r="E28" s="15">
+        <v>50</v>
+      </c>
+      <c r="F28" s="12">
+        <v>30</v>
+      </c>
+      <c r="G28" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G28" s="15">
-        <v>40</v>
-      </c>
-      <c r="H28" s="15">
-        <v>50</v>
-      </c>
-      <c r="I28" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="J28" s="13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H28" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C29" s="12">
+      <c r="C29" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" s="15">
+        <v>25</v>
+      </c>
+      <c r="E29" s="15">
+        <v>25</v>
+      </c>
+      <c r="F29" s="12">
         <v>50</v>
       </c>
-      <c r="D29" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="E29" s="11" t="s">
+      <c r="G29" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G29" s="15">
-        <v>25</v>
-      </c>
-      <c r="H29" s="15">
-        <v>25</v>
-      </c>
-      <c r="I29" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="J29" s="13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H29" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="12">
+      <c r="C30" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="15">
+        <v>35</v>
+      </c>
+      <c r="E30" s="15">
+        <v>35</v>
+      </c>
+      <c r="F30" s="12">
         <v>90</v>
       </c>
-      <c r="D30" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="E30" s="11" t="s">
+      <c r="G30" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G30" s="15">
-        <v>35</v>
-      </c>
-      <c r="H30" s="15">
-        <v>35</v>
-      </c>
-      <c r="I30" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="J30" s="13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H30" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C31" s="12">
+      <c r="C31" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" s="15">
+        <v>30</v>
+      </c>
+      <c r="E31" s="15">
+        <v>30</v>
+      </c>
+      <c r="F31" s="12">
         <v>95</v>
       </c>
-      <c r="D31" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="E31" s="11" t="s">
+      <c r="G31" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="15">
-        <v>30</v>
-      </c>
-      <c r="H31" s="15">
-        <v>30</v>
-      </c>
-      <c r="I31" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="J31" s="13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H31" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B32" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C32" s="12">
-        <v>30</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="E32" s="11" t="s">
+      <c r="C32" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" s="15">
+        <v>40</v>
+      </c>
+      <c r="E32" s="15">
+        <v>50</v>
+      </c>
+      <c r="F32" s="12">
+        <v>30</v>
+      </c>
+      <c r="G32" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G32" s="15">
-        <v>40</v>
-      </c>
-      <c r="H32" s="15">
-        <v>50</v>
-      </c>
-      <c r="I32" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="J32" s="13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H32" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C33" s="12">
+      <c r="C33" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" s="15">
+        <v>30</v>
+      </c>
+      <c r="E33" s="15">
+        <v>30</v>
+      </c>
+      <c r="F33" s="12">
         <v>95</v>
       </c>
-      <c r="D33" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="E33" s="11" t="s">
+      <c r="G33" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G33" s="15">
-        <v>30</v>
-      </c>
-      <c r="H33" s="15">
-        <v>30</v>
-      </c>
-      <c r="I33" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="J33" s="13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H33" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="B34" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" s="15">
         <v>50</v>
       </c>
-      <c r="D34" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>306</v>
-      </c>
-      <c r="G34" s="15">
+      <c r="E34" s="15">
+        <v>100</v>
+      </c>
+      <c r="F34" s="12">
         <v>50</v>
       </c>
-      <c r="H34" s="15">
-        <v>100</v>
-      </c>
-      <c r="I34" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="J34" s="13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G34" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="H34" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
-        <v>47</v>
+        <v>129</v>
       </c>
       <c r="B35" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="12">
+      <c r="C35" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35" s="15">
+        <v>25</v>
+      </c>
+      <c r="E35" s="15">
+        <v>35</v>
+      </c>
+      <c r="F35" s="12">
         <v>60</v>
       </c>
-      <c r="D35" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="E35" s="11" t="s">
+      <c r="G35" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G35" s="15">
-        <v>25</v>
-      </c>
-      <c r="H35" s="15">
-        <v>35</v>
-      </c>
-      <c r="I35" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="J35" s="13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H35" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="11" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="B36" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C36" s="12">
+      <c r="C36" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D36" s="15">
+        <v>30</v>
+      </c>
+      <c r="E36" s="15">
+        <v>60</v>
+      </c>
+      <c r="F36" s="12">
         <v>90</v>
       </c>
-      <c r="D36" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E36" s="11" t="s">
+      <c r="G36" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G36" s="15">
-        <v>30</v>
-      </c>
-      <c r="H36" s="15">
-        <v>60</v>
-      </c>
-      <c r="I36" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="J36" s="13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H36" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
-        <v>47</v>
+        <v>186</v>
       </c>
       <c r="B37" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C37" s="12">
+      <c r="C37" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D37" s="15">
+        <v>35</v>
+      </c>
+      <c r="E37" s="15">
+        <v>35</v>
+      </c>
+      <c r="F37" s="12">
         <v>75</v>
       </c>
-      <c r="D37" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="E37" s="11" t="s">
+      <c r="G37" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G37" s="15">
-        <v>35</v>
-      </c>
-      <c r="H37" s="15">
-        <v>35</v>
-      </c>
-      <c r="I37" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="J37" s="13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H37" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="B38" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C38" s="12">
+      <c r="C38" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D38" s="15">
+        <v>30</v>
+      </c>
+      <c r="E38" s="15">
+        <v>30</v>
+      </c>
+      <c r="F38" s="12">
         <v>10</v>
       </c>
-      <c r="D38" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="E38" s="11" t="s">
+      <c r="G38" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="G38" s="15">
-        <v>30</v>
-      </c>
-      <c r="H38" s="15">
-        <v>30</v>
-      </c>
-      <c r="I38" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="J38" s="13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H38" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="B39" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C39" s="12">
-        <v>30</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E39" s="11" t="s">
+      <c r="C39" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D39" s="15">
+        <v>40</v>
+      </c>
+      <c r="E39" s="15">
+        <v>80</v>
+      </c>
+      <c r="F39" s="12">
+        <v>30</v>
+      </c>
+      <c r="G39" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G39" s="15">
-        <v>40</v>
-      </c>
-      <c r="H39" s="15">
-        <v>80</v>
-      </c>
-      <c r="I39" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="J39" s="13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H39" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="11" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="B40" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C40" s="12">
+      <c r="C40" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D40" s="15">
+        <v>50</v>
+      </c>
+      <c r="E40" s="15">
+        <v>100</v>
+      </c>
+      <c r="F40" s="12">
         <v>40</v>
       </c>
-      <c r="D40" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>306</v>
-      </c>
-      <c r="G40" s="15">
-        <v>50</v>
-      </c>
-      <c r="H40" s="15">
-        <v>100</v>
-      </c>
-      <c r="I40" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="J40" s="13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G40" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="H40" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="11" t="s">
-        <v>47</v>
+        <v>186</v>
       </c>
       <c r="B41" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C41" s="12">
+      <c r="C41" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D41" s="15">
+        <v>35</v>
+      </c>
+      <c r="E41" s="15">
+        <v>35</v>
+      </c>
+      <c r="F41" s="12">
         <v>75</v>
       </c>
-      <c r="D41" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="E41" s="11" t="s">
+      <c r="G41" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G41" s="15">
-        <v>35</v>
-      </c>
-      <c r="H41" s="15">
-        <v>35</v>
-      </c>
-      <c r="I41" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="J41" s="13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H41" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="11" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="B42" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C42" s="12">
+      <c r="C42" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D42" s="15">
         <v>40</v>
       </c>
-      <c r="D42" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E42" s="11" t="s">
+      <c r="E42" s="15">
+        <v>80</v>
+      </c>
+      <c r="F42" s="12">
+        <v>40</v>
+      </c>
+      <c r="G42" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G42" s="15">
-        <v>40</v>
-      </c>
-      <c r="H42" s="15">
-        <v>80</v>
-      </c>
-      <c r="I42" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="J42" s="13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H42" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="11" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B43" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="C43" s="12">
+      <c r="C43" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D43" s="15">
+        <v>30</v>
+      </c>
+      <c r="E43" s="15">
+        <v>60</v>
+      </c>
+      <c r="F43" s="12">
         <v>20</v>
       </c>
-      <c r="D43" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="E43" s="11" t="s">
-        <v>306</v>
-      </c>
-      <c r="G43" s="15">
-        <v>30</v>
-      </c>
-      <c r="H43" s="15">
-        <v>60</v>
-      </c>
-      <c r="I43" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="J43" s="13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G43" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="H43" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="11" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="B44" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C44" s="12">
+      <c r="C44" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D44" s="15">
+        <v>30</v>
+      </c>
+      <c r="E44" s="15">
+        <v>30</v>
+      </c>
+      <c r="F44" s="12">
         <v>15</v>
       </c>
-      <c r="D44" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E44" s="11" t="s">
-        <v>306</v>
-      </c>
-      <c r="G44" s="15">
-        <v>30</v>
-      </c>
-      <c r="H44" s="15">
-        <v>30</v>
-      </c>
-      <c r="I44" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="J44" s="13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G44" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="H44" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="11" t="s">
-        <v>80</v>
+        <v>185</v>
       </c>
       <c r="B45" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="C45" s="12">
+      <c r="C45" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D45" s="15">
+        <v>60</v>
+      </c>
+      <c r="E45" s="15">
+        <v>30</v>
+      </c>
+      <c r="F45" s="12">
         <v>25</v>
       </c>
-      <c r="D45" s="11" t="s">
-        <v>287</v>
-      </c>
-      <c r="E45" s="11" t="s">
-        <v>306</v>
-      </c>
-      <c r="G45" s="15">
-        <v>60</v>
-      </c>
-      <c r="H45" s="15">
-        <v>30</v>
-      </c>
-      <c r="I45" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="J45" s="13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G45" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="H45" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="11" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="B46" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="C46" s="12">
+      <c r="C46" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D46" s="15">
+        <v>50</v>
+      </c>
+      <c r="E46" s="15">
+        <v>200</v>
+      </c>
+      <c r="F46" s="12">
         <v>5</v>
       </c>
-      <c r="D46" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="E46" s="11" t="s">
+      <c r="G46" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G46" s="15">
-        <v>50</v>
-      </c>
-      <c r="H46" s="15">
-        <v>200</v>
-      </c>
-      <c r="I46" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="J46" s="13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H46" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="11" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="B47" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="C47" s="12">
+      <c r="C47" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D47" s="15">
+        <v>40</v>
+      </c>
+      <c r="E47" s="15">
+        <v>80</v>
+      </c>
+      <c r="F47" s="12">
         <v>15</v>
       </c>
-      <c r="D47" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="E47" s="11" t="s">
-        <v>306</v>
-      </c>
-      <c r="G47" s="15">
-        <v>40</v>
-      </c>
-      <c r="H47" s="15">
-        <v>80</v>
-      </c>
-      <c r="I47" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="J47" s="13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G47" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="H47" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="11" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="B48" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="C48" s="12">
+      <c r="C48" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D48" s="15">
+        <v>30</v>
+      </c>
+      <c r="E48" s="15">
+        <v>60</v>
+      </c>
+      <c r="F48" s="12">
         <v>40</v>
       </c>
-      <c r="D48" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="E48" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="G48" s="15">
-        <v>30</v>
-      </c>
-      <c r="H48" s="15">
-        <v>60</v>
-      </c>
-      <c r="I48" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="J48" s="13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G48" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="H48" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="11" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B49" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="C49" s="12">
+      <c r="C49" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D49" s="15">
+        <v>20</v>
+      </c>
+      <c r="E49" s="15">
+        <v>20</v>
+      </c>
+      <c r="F49" s="12">
         <v>40</v>
       </c>
-      <c r="D49" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="E49" s="11" t="s">
-        <v>306</v>
-      </c>
-      <c r="G49" s="15">
-        <v>20</v>
-      </c>
-      <c r="H49" s="15">
-        <v>20</v>
-      </c>
-      <c r="I49" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="J49" s="13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G49" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="H49" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="11" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B50" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="C50" s="12">
+      <c r="C50" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D50" s="15">
+        <v>28</v>
+      </c>
+      <c r="E50" s="15">
+        <v>28</v>
+      </c>
+      <c r="F50" s="12">
         <v>50</v>
       </c>
-      <c r="D50" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="E50" s="11" t="s">
-        <v>306</v>
-      </c>
-      <c r="G50" s="15">
-        <v>28</v>
-      </c>
-      <c r="H50" s="15">
-        <v>28</v>
-      </c>
-      <c r="I50" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="J50" s="13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G50" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="H50" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="11" t="s">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="B51" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="C51" s="12">
+      <c r="C51" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D51" s="15">
+        <v>30</v>
+      </c>
+      <c r="E51" s="15">
+        <v>30</v>
+      </c>
+      <c r="F51" s="12">
         <v>35</v>
       </c>
-      <c r="D51" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E51" s="11" t="s">
+      <c r="G51" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="G51" s="15">
-        <v>30</v>
-      </c>
-      <c r="H51" s="15">
-        <v>30</v>
-      </c>
-      <c r="I51" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="J51" s="13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H51" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="11" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="B52" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="C52" s="12">
+      <c r="C52" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D52" s="15">
+        <v>20</v>
+      </c>
+      <c r="E52" s="15">
+        <v>40</v>
+      </c>
+      <c r="F52" s="12">
         <v>50</v>
       </c>
-      <c r="D52" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="E52" s="11" t="s">
-        <v>306</v>
-      </c>
-      <c r="G52" s="15">
-        <v>20</v>
-      </c>
-      <c r="H52" s="15">
-        <v>40</v>
-      </c>
-      <c r="I52" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="J52" s="13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G52" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="H52" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="11" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="B53" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="C53" s="12">
+      <c r="C53" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D53" s="15">
+        <v>30</v>
+      </c>
+      <c r="E53" s="15">
+        <v>60</v>
+      </c>
+      <c r="F53" s="12">
         <v>40</v>
       </c>
-      <c r="D53" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="E53" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="G53" s="15">
-        <v>30</v>
-      </c>
-      <c r="H53" s="15">
-        <v>60</v>
-      </c>
-      <c r="I53" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="J53" s="13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G53" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="H53" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="11" t="s">
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="B54" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="C54" s="12">
+      <c r="C54" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D54" s="15">
+        <v>40</v>
+      </c>
+      <c r="E54" s="15">
+        <v>40</v>
+      </c>
+      <c r="F54" s="12">
         <v>50</v>
       </c>
-      <c r="D54" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E54" s="11" t="s">
+      <c r="G54" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G54" s="15">
-        <v>40</v>
-      </c>
-      <c r="H54" s="15">
-        <v>40</v>
-      </c>
-      <c r="I54" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="J54" s="13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H54" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="11" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B55" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="C55" s="12">
+      <c r="C55" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D55" s="15">
+        <v>30</v>
+      </c>
+      <c r="E55" s="15">
+        <v>60</v>
+      </c>
+      <c r="F55" s="12">
         <v>50</v>
       </c>
-      <c r="D55" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="E55" s="11" t="s">
-        <v>306</v>
-      </c>
-      <c r="G55" s="15">
-        <v>30</v>
-      </c>
-      <c r="H55" s="15">
-        <v>60</v>
-      </c>
-      <c r="I55" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="J55" s="13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G55" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="H55" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="11" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="B56" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="C56" s="12">
-        <v>30</v>
-      </c>
-      <c r="D56" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="E56" s="11" t="s">
-        <v>306</v>
-      </c>
-      <c r="G56" s="15">
+      <c r="C56" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D56" s="15">
         <v>16</v>
       </c>
-      <c r="H56" s="15">
+      <c r="E56" s="15">
         <v>44</v>
       </c>
-      <c r="I56" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="J56" s="13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F56" s="12">
+        <v>30</v>
+      </c>
+      <c r="G56" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="H56" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="11" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="B57" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C57" s="12">
+      <c r="C57" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D57" s="15">
+        <v>10</v>
+      </c>
+      <c r="E57" s="15">
+        <v>10</v>
+      </c>
+      <c r="F57" s="12">
         <v>50</v>
       </c>
-      <c r="D57" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="E57" s="11" t="s">
+      <c r="G57" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="G57" s="15">
-        <v>10</v>
-      </c>
-      <c r="H57" s="15">
-        <v>10</v>
-      </c>
-      <c r="I57" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="J57" s="13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H57" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="C58" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="B58" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="C58" s="12">
+      <c r="D58" s="15">
+        <v>30</v>
+      </c>
+      <c r="E58" s="15">
         <v>60</v>
       </c>
-      <c r="D58" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E58" s="11" t="s">
-        <v>306</v>
-      </c>
-      <c r="G58" s="15">
-        <v>30</v>
-      </c>
-      <c r="H58" s="15">
+      <c r="F58" s="12">
         <v>60</v>
       </c>
-      <c r="I58" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="J58" s="13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G58" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="H58" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B59" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C59" s="12">
-        <v>30</v>
-      </c>
-      <c r="D59" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="E59" s="11" t="s">
+      <c r="C59" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D59" s="15">
+        <v>20</v>
+      </c>
+      <c r="E59" s="15">
+        <v>20</v>
+      </c>
+      <c r="F59" s="12">
+        <v>30</v>
+      </c>
+      <c r="G59" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="G59" s="15">
-        <v>20</v>
-      </c>
-      <c r="H59" s="15">
-        <v>20</v>
-      </c>
-      <c r="I59" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="J59" s="13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H59" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B60" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="C60" s="12">
+      <c r="C60" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D60" s="15">
+        <v>0</v>
+      </c>
+      <c r="E60" s="15">
+        <v>56</v>
+      </c>
+      <c r="F60" s="12">
         <v>75</v>
       </c>
-      <c r="D60" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="E60" s="11" t="s">
+      <c r="G60" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="G60" s="15">
-        <v>0</v>
-      </c>
-      <c r="H60" s="15">
-        <v>56</v>
-      </c>
-      <c r="I60" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="J60" s="13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H60" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="11" t="s">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="B61" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="C61" s="12">
+      <c r="C61" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D61" s="15">
+        <v>25</v>
+      </c>
+      <c r="E61" s="15">
+        <v>25</v>
+      </c>
+      <c r="F61" s="12">
         <v>50</v>
       </c>
-      <c r="D61" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="E61" s="11" t="s">
+      <c r="G61" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="G61" s="15">
-        <v>25</v>
-      </c>
-      <c r="H61" s="15">
-        <v>25</v>
-      </c>
-      <c r="I61" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="J61" s="13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H61" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B62" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="C62" s="12">
+      <c r="C62" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D62" s="15">
+        <v>30</v>
+      </c>
+      <c r="E62" s="15">
+        <v>30</v>
+      </c>
+      <c r="F62" s="12">
         <v>40</v>
       </c>
-      <c r="D62" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="E62" s="11" t="s">
+      <c r="G62" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G62" s="15">
-        <v>30</v>
-      </c>
-      <c r="H62" s="15">
-        <v>30</v>
-      </c>
-      <c r="I62" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="J62" s="13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H62" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="11" t="s">
-        <v>121</v>
+        <v>8</v>
       </c>
       <c r="B63" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C63" s="12">
+      <c r="C63" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D63" s="15">
+        <v>20</v>
+      </c>
+      <c r="E63" s="15">
+        <v>40</v>
+      </c>
+      <c r="F63" s="12">
         <v>50</v>
       </c>
-      <c r="D63" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E63" s="11" t="s">
+      <c r="G63" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G63" s="15">
-        <v>20</v>
-      </c>
-      <c r="H63" s="15">
-        <v>40</v>
-      </c>
-      <c r="I63" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="J63" s="13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H63" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="11" t="s">
-        <v>121</v>
+        <v>26</v>
       </c>
       <c r="B64" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="C64" s="12">
+      <c r="C64" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D64" s="15">
+        <v>25</v>
+      </c>
+      <c r="E64" s="15">
+        <v>25</v>
+      </c>
+      <c r="F64" s="12">
         <v>35</v>
       </c>
-      <c r="D64" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E64" s="11" t="s">
+      <c r="G64" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G64" s="15">
-        <v>25</v>
-      </c>
-      <c r="H64" s="15">
-        <v>25</v>
-      </c>
-      <c r="I64" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="J64" s="13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H64" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="11" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="B65" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="C65" s="12">
+      <c r="C65" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D65" s="15">
+        <v>20</v>
+      </c>
+      <c r="E65" s="15">
+        <v>40</v>
+      </c>
+      <c r="F65" s="12">
         <v>50</v>
       </c>
-      <c r="D65" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="E65" s="11" t="s">
+      <c r="G65" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G65" s="15">
-        <v>20</v>
-      </c>
-      <c r="H65" s="15">
-        <v>40</v>
-      </c>
-      <c r="I65" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="J65" s="13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H65" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="11" t="s">
-        <v>121</v>
+        <v>71</v>
       </c>
       <c r="B66" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="C66" s="12">
-        <v>30</v>
-      </c>
-      <c r="D66" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="E66" s="11" t="s">
-        <v>306</v>
-      </c>
-      <c r="G66" s="15">
+      <c r="C66" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D66" s="15">
         <v>20</v>
       </c>
-      <c r="H66" s="15">
+      <c r="E66" s="15">
         <v>40</v>
       </c>
-      <c r="I66" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="J66" s="13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F66" s="12">
+        <v>30</v>
+      </c>
+      <c r="G66" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="H66" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="11" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B67" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="C67" s="12">
-        <v>30</v>
-      </c>
-      <c r="D67" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="E67" s="11" t="s">
+      <c r="C67" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D67" s="15">
+        <v>40</v>
+      </c>
+      <c r="E67" s="15">
+        <v>80</v>
+      </c>
+      <c r="F67" s="12">
+        <v>30</v>
+      </c>
+      <c r="G67" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G67" s="15">
-        <v>40</v>
-      </c>
-      <c r="H67" s="15">
-        <v>80</v>
-      </c>
-      <c r="I67" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="J67" s="13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H67" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="11" t="s">
-        <v>121</v>
+        <v>71</v>
       </c>
       <c r="B68" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="C68" s="12">
-        <v>30</v>
-      </c>
-      <c r="D68" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="E68" s="11" t="s">
-        <v>306</v>
-      </c>
-      <c r="G68" s="15">
+      <c r="C68" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D68" s="15">
         <v>20</v>
       </c>
-      <c r="H68" s="15">
+      <c r="E68" s="15">
         <v>40</v>
       </c>
-      <c r="I68" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="J68" s="13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F68" s="12">
+        <v>30</v>
+      </c>
+      <c r="G68" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="H68" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="11" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B69" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="C69" s="12">
+      <c r="C69" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D69" s="15">
+        <v>40</v>
+      </c>
+      <c r="E69" s="15">
+        <v>80</v>
+      </c>
+      <c r="F69" s="12">
         <v>25</v>
       </c>
-      <c r="D69" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="E69" s="11" t="s">
+      <c r="G69" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G69" s="15">
-        <v>40</v>
-      </c>
-      <c r="H69" s="15">
-        <v>80</v>
-      </c>
-      <c r="I69" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="J69" s="13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H69" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="11" t="s">
-        <v>121</v>
+        <v>26</v>
       </c>
       <c r="B70" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="C70" s="12">
+      <c r="C70" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D70" s="15">
+        <v>22</v>
+      </c>
+      <c r="E70" s="15">
+        <v>22</v>
+      </c>
+      <c r="F70" s="12">
         <v>90</v>
       </c>
-      <c r="D70" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E70" s="11" t="s">
+      <c r="G70" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G70" s="15">
-        <v>22</v>
-      </c>
-      <c r="H70" s="15">
-        <v>22</v>
-      </c>
-      <c r="I70" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="J70" s="13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H70" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="11" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B71" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C71" s="12">
+      <c r="C71" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D71" s="15">
+        <v>35</v>
+      </c>
+      <c r="E71" s="15">
+        <v>35</v>
+      </c>
+      <c r="F71" s="12">
         <v>95</v>
       </c>
-      <c r="D71" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="E71" s="11" t="s">
+      <c r="G71" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="G71" s="15">
-        <v>35</v>
-      </c>
-      <c r="H71" s="15">
-        <v>35</v>
-      </c>
-      <c r="I71" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="J71" s="13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H71" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="11" t="s">
-        <v>121</v>
+        <v>29</v>
       </c>
       <c r="B72" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="C72" s="12">
-        <v>30</v>
-      </c>
-      <c r="D72" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E72" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G72" s="15">
+      <c r="C72" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D72" s="15">
         <v>15</v>
       </c>
-      <c r="H72" s="15">
+      <c r="E72" s="15">
         <v>55</v>
       </c>
-      <c r="I72" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="J72" s="13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F72" s="12">
+        <v>30</v>
+      </c>
+      <c r="G72" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H72" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="11" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B73" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C73" s="12">
+      <c r="C73" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D73" s="15">
+        <v>35</v>
+      </c>
+      <c r="E73" s="15">
+        <v>35</v>
+      </c>
+      <c r="F73" s="12">
         <v>95</v>
       </c>
-      <c r="D73" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="E73" s="11" t="s">
+      <c r="G73" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="G73" s="15">
-        <v>35</v>
-      </c>
-      <c r="H73" s="15">
-        <v>35</v>
-      </c>
-      <c r="I73" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="J73" s="13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H73" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="11" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B74" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="C74" s="12">
+      <c r="C74" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D74" s="15">
+        <v>20</v>
+      </c>
+      <c r="E74" s="15">
+        <v>20</v>
+      </c>
+      <c r="F74" s="12">
         <v>85</v>
       </c>
-      <c r="D74" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="E74" s="11" t="s">
+      <c r="G74" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="G74" s="15">
-        <v>20</v>
-      </c>
-      <c r="H74" s="15">
-        <v>20</v>
-      </c>
-      <c r="I74" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="J74" s="13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H74" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B75" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="C75" s="12">
+      <c r="C75" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="D75" s="15">
+        <v>20</v>
+      </c>
+      <c r="E75" s="15">
+        <v>60</v>
+      </c>
+      <c r="F75" s="12">
         <v>15</v>
       </c>
-      <c r="D75" s="11" t="s">
+      <c r="G75" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="H75" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="11" t="s">
         <v>135</v>
-      </c>
-      <c r="E75" s="11" t="s">
-        <v>306</v>
-      </c>
-      <c r="G75" s="15">
-        <v>20</v>
-      </c>
-      <c r="H75" s="15">
-        <v>60</v>
-      </c>
-      <c r="I75" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="J75" s="13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="11" t="s">
-        <v>137</v>
       </c>
       <c r="B76" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="C76" s="12">
+      <c r="C76" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="D76" s="15">
+        <v>25</v>
+      </c>
+      <c r="E76" s="15">
+        <v>50</v>
+      </c>
+      <c r="F76" s="12">
         <v>32</v>
       </c>
-      <c r="D76" s="11" t="s">
+      <c r="G76" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H76" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="11" t="s">
         <v>135</v>
-      </c>
-      <c r="E76" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G76" s="15">
-        <v>25</v>
-      </c>
-      <c r="H76" s="15">
-        <v>50</v>
-      </c>
-      <c r="I76" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="J76" s="13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="11" t="s">
-        <v>137</v>
       </c>
       <c r="B77" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="C77" s="12">
+      <c r="C77" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="D77" s="15">
+        <v>24</v>
+      </c>
+      <c r="E77" s="15">
+        <v>48</v>
+      </c>
+      <c r="F77" s="12">
         <v>36</v>
       </c>
-      <c r="D77" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="E77" s="11" t="s">
+      <c r="G77" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G77" s="15">
-        <v>24</v>
-      </c>
-      <c r="H77" s="15">
-        <v>48</v>
-      </c>
-      <c r="I77" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="J77" s="13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H77" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="11" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="B78" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="C78" s="12">
+      <c r="C78" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="D78" s="15">
+        <v>15</v>
+      </c>
+      <c r="E78" s="15">
+        <v>15</v>
+      </c>
+      <c r="F78" s="12">
         <v>90</v>
       </c>
-      <c r="D78" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="E78" s="11" t="s">
+      <c r="G78" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G78" s="15">
-        <v>15</v>
-      </c>
-      <c r="H78" s="15">
-        <v>15</v>
-      </c>
-      <c r="I78" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="J78" s="13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H78" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="11" t="s">
-        <v>145</v>
+        <v>2</v>
       </c>
       <c r="B79" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="C79" s="12">
+      <c r="C79" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="D79" s="15">
+        <v>20</v>
+      </c>
+      <c r="E79" s="15">
+        <v>20</v>
+      </c>
+      <c r="F79" s="12">
         <v>80</v>
       </c>
-      <c r="D79" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E79" s="11" t="s">
+      <c r="G79" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G79" s="15">
-        <v>20</v>
-      </c>
-      <c r="H79" s="15">
-        <v>20</v>
-      </c>
-      <c r="I79" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="J79" s="13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H79" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="11" t="s">
-        <v>145</v>
+        <v>32</v>
       </c>
       <c r="B80" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="C80" s="12">
+      <c r="C80" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="D80" s="15">
+        <v>20</v>
+      </c>
+      <c r="E80" s="15">
+        <v>20</v>
+      </c>
+      <c r="F80" s="12">
         <v>8</v>
       </c>
-      <c r="D80" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E80" s="11" t="s">
+      <c r="G80" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="G80" s="15">
-        <v>20</v>
-      </c>
-      <c r="H80" s="15">
-        <v>20</v>
-      </c>
-      <c r="I80" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="J80" s="13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H80" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="11" t="s">
-        <v>145</v>
+        <v>88</v>
       </c>
       <c r="B81" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="C81" s="12">
+      <c r="C81" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="D81" s="15">
+        <v>20</v>
+      </c>
+      <c r="E81" s="15">
+        <v>20</v>
+      </c>
+      <c r="F81" s="12">
         <v>50</v>
       </c>
-      <c r="D81" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="E81" s="11" t="s">
-        <v>306</v>
-      </c>
-      <c r="G81" s="15">
-        <v>20</v>
-      </c>
-      <c r="H81" s="15">
-        <v>20</v>
-      </c>
-      <c r="I81" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="J81" s="13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G81" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="H81" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="11" t="s">
-        <v>145</v>
+        <v>37</v>
       </c>
       <c r="B82" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="C82" s="12">
+      <c r="C82" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="D82" s="15">
+        <v>10</v>
+      </c>
+      <c r="E82" s="15">
+        <v>10</v>
+      </c>
+      <c r="F82" s="12">
         <v>50</v>
       </c>
-      <c r="D82" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E82" s="11" t="s">
+      <c r="G82" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="G82" s="15">
-        <v>10</v>
-      </c>
-      <c r="H82" s="15">
-        <v>10</v>
-      </c>
-      <c r="I82" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="J82" s="13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H82" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="11" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B83" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="C83" s="12">
+      <c r="C83" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="D83" s="15">
+        <v>30</v>
+      </c>
+      <c r="E83" s="15">
+        <v>30</v>
+      </c>
+      <c r="F83" s="12">
         <v>70</v>
       </c>
-      <c r="D83" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="E83" s="11" t="s">
+      <c r="G83" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="G83" s="15">
-        <v>30</v>
-      </c>
-      <c r="H83" s="15">
-        <v>30</v>
-      </c>
-      <c r="I83" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="J83" s="13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H83" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B84" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="C84" s="12">
-        <v>30</v>
-      </c>
-      <c r="D84" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="E84" s="11" t="s">
+      <c r="C84" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="D84" s="15">
+        <v>30</v>
+      </c>
+      <c r="E84" s="15">
+        <v>30</v>
+      </c>
+      <c r="F84" s="12">
+        <v>30</v>
+      </c>
+      <c r="G84" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="G84" s="15">
-        <v>30</v>
-      </c>
-      <c r="H84" s="15">
-        <v>30</v>
-      </c>
-      <c r="I84" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="J84" s="13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H84" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="11" t="s">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="B85" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="C85" s="12">
+      <c r="C85" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="D85" s="15">
+        <v>60</v>
+      </c>
+      <c r="E85" s="15">
+        <v>200</v>
+      </c>
+      <c r="F85" s="12">
         <v>20</v>
       </c>
-      <c r="D85" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="E85" s="11" t="s">
+      <c r="G85" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="G85" s="15">
-        <v>60</v>
-      </c>
-      <c r="H85" s="15">
-        <v>200</v>
-      </c>
-      <c r="I85" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="J85" s="13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H85" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="11" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="B86" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="C86" s="12">
+      <c r="C86" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="D86" s="15">
         <v>20</v>
       </c>
-      <c r="D86" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="E86" s="11" t="s">
+      <c r="E86" s="15">
+        <v>0</v>
+      </c>
+      <c r="F86" s="12">
+        <v>20</v>
+      </c>
+      <c r="G86" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="G86" s="15">
-        <v>20</v>
-      </c>
-      <c r="H86" s="15">
-        <v>0</v>
-      </c>
-      <c r="I86" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="J86" s="13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H86" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="11" t="s">
-        <v>145</v>
+        <v>37</v>
       </c>
       <c r="B87" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="C87" s="12">
+      <c r="C87" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="D87" s="15">
+        <v>12</v>
+      </c>
+      <c r="E87" s="15">
+        <v>12</v>
+      </c>
+      <c r="F87" s="12">
         <v>60</v>
       </c>
-      <c r="D87" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E87" s="11" t="s">
-        <v>306</v>
-      </c>
-      <c r="G87" s="15">
-        <v>12</v>
-      </c>
-      <c r="H87" s="15">
-        <v>12</v>
-      </c>
-      <c r="I87" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="J87" s="13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G87" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="H87" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="11" t="s">
-        <v>145</v>
+        <v>83</v>
       </c>
       <c r="B88" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="C88" s="12">
+      <c r="C88" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="D88" s="15">
+        <v>30</v>
+      </c>
+      <c r="E88" s="15">
+        <v>30</v>
+      </c>
+      <c r="F88" s="12">
         <v>80</v>
       </c>
-      <c r="D88" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="E88" s="11" t="s">
+      <c r="G88" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="G88" s="15">
-        <v>30</v>
-      </c>
-      <c r="H88" s="15">
-        <v>30</v>
-      </c>
-      <c r="I88" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="J88" s="13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H88" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="11" t="s">
-        <v>145</v>
+        <v>37</v>
       </c>
       <c r="B89" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="C89" s="12">
+      <c r="C89" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="D89" s="15">
+        <v>16</v>
+      </c>
+      <c r="E89" s="15">
+        <v>16</v>
+      </c>
+      <c r="F89" s="12">
         <v>80</v>
       </c>
-      <c r="D89" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E89" s="11" t="s">
+      <c r="G89" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="G89" s="15">
-        <v>16</v>
-      </c>
-      <c r="H89" s="15">
-        <v>16</v>
-      </c>
-      <c r="I89" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="J89" s="13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H89" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="11" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="B90" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="C90" s="12">
+      <c r="C90" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="D90" s="15">
+        <v>40</v>
+      </c>
+      <c r="E90" s="15">
+        <v>80</v>
+      </c>
+      <c r="F90" s="12">
         <v>20</v>
       </c>
-      <c r="D90" s="11" t="s">
+      <c r="G90" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H90" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="11" t="s">
         <v>165</v>
-      </c>
-      <c r="E90" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G90" s="15">
-        <v>40</v>
-      </c>
-      <c r="H90" s="15">
-        <v>80</v>
-      </c>
-      <c r="I90" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="J90" s="13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="11" t="s">
-        <v>145</v>
       </c>
       <c r="B91" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="C91" s="12">
+      <c r="C91" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="D91" s="15">
+        <v>25</v>
+      </c>
+      <c r="E91" s="15">
+        <v>50</v>
+      </c>
+      <c r="F91" s="12">
         <v>90</v>
       </c>
-      <c r="D91" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="E91" s="11" t="s">
+      <c r="G91" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G91" s="15">
-        <v>25</v>
-      </c>
-      <c r="H91" s="15">
-        <v>50</v>
-      </c>
-      <c r="I91" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="J91" s="13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H91" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="11" t="s">
-        <v>145</v>
+        <v>32</v>
       </c>
       <c r="B92" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="C92" s="12">
+      <c r="C92" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="D92" s="15">
+        <v>20</v>
+      </c>
+      <c r="E92" s="15">
+        <v>20</v>
+      </c>
+      <c r="F92" s="12">
         <v>4</v>
       </c>
-      <c r="D92" s="11" t="s">
+      <c r="G92" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="H92" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="11" t="s">
         <v>32</v>
-      </c>
-      <c r="E92" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="G92" s="15">
-        <v>20</v>
-      </c>
-      <c r="H92" s="15">
-        <v>20</v>
-      </c>
-      <c r="I92" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="J92" s="13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="11" t="s">
-        <v>145</v>
       </c>
       <c r="B93" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="C93" s="12">
+      <c r="C93" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="D93" s="15">
+        <v>20</v>
+      </c>
+      <c r="E93" s="15">
+        <v>20</v>
+      </c>
+      <c r="F93" s="12">
         <v>8</v>
       </c>
-      <c r="D93" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E93" s="11" t="s">
+      <c r="G93" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="G93" s="15">
-        <v>20</v>
-      </c>
-      <c r="H93" s="15">
-        <v>20</v>
-      </c>
-      <c r="I93" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="J93" s="13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H93" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="11" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="B94" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="C94" s="12">
+      <c r="C94" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="D94" s="15">
+        <v>0</v>
+      </c>
+      <c r="E94" s="15">
+        <v>20</v>
+      </c>
+      <c r="F94" s="12">
         <v>25</v>
       </c>
-      <c r="D94" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="E94" s="11" t="s">
+      <c r="G94" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="G94" s="15">
-        <v>0</v>
-      </c>
-      <c r="H94" s="15">
-        <v>20</v>
-      </c>
-      <c r="I94" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="J94" s="13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H94" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="11" t="s">
-        <v>145</v>
+        <v>22</v>
       </c>
       <c r="B95" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="C95" s="12">
+      <c r="C95" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="D95" s="15">
+        <v>30</v>
+      </c>
+      <c r="E95" s="15">
+        <v>30</v>
+      </c>
+      <c r="F95" s="12">
         <v>20</v>
       </c>
-      <c r="D95" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E95" s="11" t="s">
+      <c r="G95" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G95" s="15">
-        <v>30</v>
-      </c>
-      <c r="H95" s="15">
-        <v>30</v>
-      </c>
-      <c r="I95" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="J95" s="13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H95" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="11" t="s">
-        <v>145</v>
+        <v>83</v>
       </c>
       <c r="B96" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="C96" s="12">
+      <c r="C96" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="D96" s="15">
+        <v>35</v>
+      </c>
+      <c r="E96" s="15">
+        <v>35</v>
+      </c>
+      <c r="F96" s="12">
         <v>75</v>
       </c>
-      <c r="D96" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="E96" s="11" t="s">
-        <v>306</v>
-      </c>
-      <c r="G96" s="15">
-        <v>35</v>
-      </c>
-      <c r="H96" s="15">
-        <v>35</v>
-      </c>
-      <c r="I96" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="J96" s="13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G96" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="H96" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="11" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B97" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="C97" s="12">
+      <c r="C97" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="D97" s="15">
+        <v>30</v>
+      </c>
+      <c r="E97" s="15">
+        <v>30</v>
+      </c>
+      <c r="F97" s="12">
         <v>95</v>
       </c>
-      <c r="D97" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="E97" s="11" t="s">
+      <c r="G97" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="G97" s="15">
-        <v>30</v>
-      </c>
-      <c r="H97" s="15">
-        <v>30</v>
-      </c>
-      <c r="I97" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="J97" s="13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H97" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="11" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="B98" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="C98" s="12">
-        <v>30</v>
-      </c>
-      <c r="D98" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="E98" s="11" t="s">
+      <c r="C98" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="D98" s="15">
+        <v>0</v>
+      </c>
+      <c r="E98" s="15">
+        <v>20</v>
+      </c>
+      <c r="F98" s="12">
+        <v>30</v>
+      </c>
+      <c r="G98" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="G98" s="15">
-        <v>0</v>
-      </c>
-      <c r="H98" s="15">
-        <v>20</v>
-      </c>
-      <c r="I98" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="J98" s="13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H98" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="11" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B99" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="C99" s="12">
-        <v>30</v>
-      </c>
-      <c r="D99" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="E99" s="11" t="s">
+      <c r="C99" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="D99" s="15">
+        <v>30</v>
+      </c>
+      <c r="E99" s="15">
+        <v>30</v>
+      </c>
+      <c r="F99" s="12">
+        <v>30</v>
+      </c>
+      <c r="G99" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="G99" s="15">
-        <v>30</v>
-      </c>
-      <c r="H99" s="15">
-        <v>30</v>
-      </c>
-      <c r="I99" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="J99" s="13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H99" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B100" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="C100" s="12">
+      <c r="C100" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="D100" s="15">
+        <v>10</v>
+      </c>
+      <c r="E100" s="15">
+        <v>20</v>
+      </c>
+      <c r="F100" s="12">
         <v>75</v>
       </c>
-      <c r="D100" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="E100" s="11" t="s">
-        <v>306</v>
-      </c>
-      <c r="G100" s="15">
-        <v>10</v>
-      </c>
-      <c r="H100" s="15">
-        <v>20</v>
-      </c>
-      <c r="I100" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="J100" s="13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G100" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="H100" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="11" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B101" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="C101" s="12">
+      <c r="C101" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="D101" s="15">
+        <v>20</v>
+      </c>
+      <c r="E101" s="15">
+        <v>25</v>
+      </c>
+      <c r="F101" s="12">
         <v>95</v>
       </c>
-      <c r="D101" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="E101" s="11" t="s">
+      <c r="G101" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="G101" s="15">
-        <v>20</v>
-      </c>
-      <c r="H101" s="15">
-        <v>25</v>
-      </c>
-      <c r="I101" s="11" t="s">
-        <v>272</v>
-      </c>
-      <c r="J101" s="13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H101" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B102" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="C102" s="12">
-        <v>30</v>
-      </c>
-      <c r="D102" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="E102" s="11" t="s">
+      <c r="C102" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="D102" s="15">
+        <v>40</v>
+      </c>
+      <c r="E102" s="15">
+        <v>80</v>
+      </c>
+      <c r="F102" s="12">
+        <v>30</v>
+      </c>
+      <c r="G102" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="G102" s="15">
-        <v>40</v>
-      </c>
-      <c r="H102" s="15">
-        <v>80</v>
-      </c>
-      <c r="I102" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="J102" s="13" t="s">
-        <v>309</v>
+      <c r="H102" s="13" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sort="0" autoFilter="0"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I102">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G102">
     <sortCondition ref="A2:A102"/>
     <sortCondition ref="B2:B102"/>
-    <sortCondition ref="D2:D102"/>
   </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A102" xr:uid="{4B74F6AD-96C5-4695-A0C6-07CC758AE7C0}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C102" xr:uid="{69E39101-2C5F-EF4F-BC70-DD2EF3319EDA}">
       <formula1>Utb.områden</formula1>
     </dataValidation>
   </dataValidations>
@@ -4453,7 +3840,7 @@
   <sheetData>
     <row r="1" spans="1:71" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>292</v>
+        <v>188</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -4599,7 +3986,7 @@
     </row>
     <row r="3" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>293</v>
+        <v>189</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -4673,7 +4060,7 @@
     </row>
     <row r="4" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>294</v>
+        <v>190</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -4747,7 +4134,7 @@
     </row>
     <row r="5" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>304</v>
+        <v>200</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -4822,7 +4209,7 @@
     <row r="6" spans="1:71" s="1" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>295</v>
+        <v>191</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -4896,7 +4283,7 @@
     </row>
     <row r="8" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>302</v>
+        <v>198</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -5043,7 +4430,7 @@
     </row>
     <row r="10" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>296</v>
+        <v>192</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -5117,7 +4504,7 @@
     </row>
     <row r="11" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>305</v>
+        <v>201</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -5192,7 +4579,7 @@
     <row r="12" spans="1:71" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="13" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>297</v>
+        <v>193</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -5266,7 +4653,7 @@
     </row>
     <row r="14" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>303</v>
+        <v>199</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -5412,7 +4799,7 @@
     </row>
     <row r="16" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -5486,7 +4873,7 @@
     </row>
     <row r="17" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>298</v>
+        <v>194</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -5560,7 +4947,7 @@
     </row>
     <row r="18" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>299</v>
+        <v>195</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -5634,7 +5021,7 @@
     </row>
     <row r="19" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>300</v>
+        <v>196</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -5709,7 +5096,7 @@
     <row r="20" spans="1:71" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
-        <v>289</v>
+        <v>187</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -5783,7 +5170,7 @@
     </row>
     <row r="22" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>301</v>
+        <v>197</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>

--- a/data/course/resultat_kurs_2020.xlsx
+++ b/data/course/resultat_kurs_2020.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/said/Documents/github/DataVisualisering_Projekt_YhKollen_G1/data/course/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anton\Documents\GIT\DataVisualisering_Projekt_YhKollen_G1\data\course\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AEFA86C-9F12-6E43-9C65-43F4AAF93658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53599B3D-7A87-4076-A191-6C0250E8639B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16160" yWindow="500" windowWidth="12640" windowHeight="11060" xr2:uid="{D5A1FCBF-B9C0-40F8-8665-3732FDDAF628}"/>
+    <workbookView xWindow="-90" yWindow="210" windowWidth="28890" windowHeight="5955" xr2:uid="{D5A1FCBF-B9C0-40F8-8665-3732FDDAF628}"/>
   </bookViews>
   <sheets>
-    <sheet name="Lista beviljade utbildningar" sheetId="1" r:id="rId1"/>
+    <sheet name="Lista ansökningar" sheetId="1" r:id="rId1"/>
     <sheet name="Definitioner och förklaringar" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Lista beviljade utbildningar'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Lista ansökningar'!$A$1:$G$1</definedName>
     <definedName name="Bedömning">#REF!</definedName>
     <definedName name="Beslut">#REF!</definedName>
     <definedName name="Utb.områden">#REF!</definedName>
@@ -657,13 +657,13 @@
     <t>År</t>
   </si>
   <si>
-    <t xml:space="preserve">Kommun </t>
-  </si>
-  <si>
     <t>2020</t>
   </si>
   <si>
     <t>Antal beviljade platser 1</t>
+  </si>
+  <si>
+    <t>Antal beviljade platser 2</t>
   </si>
 </sst>
 </file>
@@ -843,9 +843,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema Office 2013 – 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 – 2022">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -883,7 +883,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 – 2022">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -989,7 +989,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 – 2022">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1141,19 +1141,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2A5C9BD-4E5C-4650-9BA8-10678C62021C}">
   <dimension ref="A1:H102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:P1048576"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="57.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="74.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" style="11" customWidth="1"/>
     <col min="3" max="3" width="36" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="19.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" style="16" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" style="16" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" style="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.5" style="13"/>
+    <col min="8" max="16384" width="9.42578125" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1167,7 +1168,7 @@
         <v>182</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E1" s="14" t="s">
         <v>206</v>
@@ -1176,7 +1177,7 @@
         <v>187</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="H1" s="10" t="s">
         <v>203</v>
@@ -1205,7 +1206,7 @@
         <v>9</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1231,7 +1232,7 @@
         <v>13</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1257,7 +1258,7 @@
         <v>202</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1283,7 +1284,7 @@
         <v>7</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1309,7 +1310,7 @@
         <v>21</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1335,7 +1336,7 @@
         <v>202</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1361,7 +1362,7 @@
         <v>21</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1387,7 +1388,7 @@
         <v>9</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1413,7 +1414,7 @@
         <v>181</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1439,7 +1440,7 @@
         <v>202</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1465,7 +1466,7 @@
         <v>30</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1491,7 +1492,7 @@
         <v>3</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1517,7 +1518,7 @@
         <v>202</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1543,7 +1544,7 @@
         <v>11</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1569,7 +1570,7 @@
         <v>21</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1595,7 +1596,7 @@
         <v>21</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1621,7 +1622,7 @@
         <v>11</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1647,7 +1648,7 @@
         <v>9</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1673,7 +1674,7 @@
         <v>7</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1699,7 +1700,7 @@
         <v>202</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1725,7 +1726,7 @@
         <v>181</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1751,7 +1752,7 @@
         <v>9</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1777,7 +1778,7 @@
         <v>202</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1803,7 +1804,7 @@
         <v>106</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1829,7 +1830,7 @@
         <v>202</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1855,7 +1856,7 @@
         <v>11</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1881,7 +1882,7 @@
         <v>11</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1907,7 +1908,7 @@
         <v>9</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1933,7 +1934,7 @@
         <v>13</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1959,7 +1960,7 @@
         <v>11</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1985,7 +1986,7 @@
         <v>9</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2011,7 +2012,7 @@
         <v>11</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2037,7 +2038,7 @@
         <v>202</v>
       </c>
       <c r="H34" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2063,7 +2064,7 @@
         <v>25</v>
       </c>
       <c r="H35" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2089,7 +2090,7 @@
         <v>11</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2115,7 +2116,7 @@
         <v>11</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2141,7 +2142,7 @@
         <v>74</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2167,7 +2168,7 @@
         <v>11</v>
       </c>
       <c r="H39" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2193,7 +2194,7 @@
         <v>202</v>
       </c>
       <c r="H40" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2219,7 +2220,7 @@
         <v>11</v>
       </c>
       <c r="H41" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2245,7 +2246,7 @@
         <v>11</v>
       </c>
       <c r="H42" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2271,7 +2272,7 @@
         <v>202</v>
       </c>
       <c r="H43" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2297,7 +2298,7 @@
         <v>202</v>
       </c>
       <c r="H44" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2323,7 +2324,7 @@
         <v>202</v>
       </c>
       <c r="H45" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2349,7 +2350,7 @@
         <v>11</v>
       </c>
       <c r="H46" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2375,7 +2376,7 @@
         <v>202</v>
       </c>
       <c r="H47" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2401,7 +2402,7 @@
         <v>183</v>
       </c>
       <c r="H48" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2427,7 +2428,7 @@
         <v>202</v>
       </c>
       <c r="H49" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2453,7 +2454,7 @@
         <v>202</v>
       </c>
       <c r="H50" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2479,7 +2480,7 @@
         <v>45</v>
       </c>
       <c r="H51" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2505,7 +2506,7 @@
         <v>202</v>
       </c>
       <c r="H52" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2531,7 +2532,7 @@
         <v>183</v>
       </c>
       <c r="H53" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2557,7 +2558,7 @@
         <v>7</v>
       </c>
       <c r="H54" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2583,7 +2584,7 @@
         <v>202</v>
       </c>
       <c r="H55" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2609,7 +2610,7 @@
         <v>202</v>
       </c>
       <c r="H56" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2635,7 +2636,7 @@
         <v>97</v>
       </c>
       <c r="H57" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2661,7 +2662,7 @@
         <v>202</v>
       </c>
       <c r="H58" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2687,7 +2688,7 @@
         <v>106</v>
       </c>
       <c r="H59" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2713,7 +2714,7 @@
         <v>181</v>
       </c>
       <c r="H60" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2739,7 +2740,7 @@
         <v>79</v>
       </c>
       <c r="H61" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2765,7 +2766,7 @@
         <v>9</v>
       </c>
       <c r="H62" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2791,7 +2792,7 @@
         <v>9</v>
       </c>
       <c r="H63" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2817,7 +2818,7 @@
         <v>11</v>
       </c>
       <c r="H64" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2843,7 +2844,7 @@
         <v>31</v>
       </c>
       <c r="H65" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2869,7 +2870,7 @@
         <v>202</v>
       </c>
       <c r="H66" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2895,7 +2896,7 @@
         <v>11</v>
       </c>
       <c r="H67" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2921,7 +2922,7 @@
         <v>202</v>
       </c>
       <c r="H68" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2947,7 +2948,7 @@
         <v>11</v>
       </c>
       <c r="H69" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2973,7 +2974,7 @@
         <v>11</v>
       </c>
       <c r="H70" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2999,7 +3000,7 @@
         <v>45</v>
       </c>
       <c r="H71" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3025,7 +3026,7 @@
         <v>30</v>
       </c>
       <c r="H72" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3051,7 +3052,7 @@
         <v>45</v>
       </c>
       <c r="H73" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3077,7 +3078,7 @@
         <v>120</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3103,7 +3104,7 @@
         <v>202</v>
       </c>
       <c r="H75" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3129,7 +3130,7 @@
         <v>11</v>
       </c>
       <c r="H76" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3155,7 +3156,7 @@
         <v>11</v>
       </c>
       <c r="H77" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3181,7 +3182,7 @@
         <v>31</v>
       </c>
       <c r="H78" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3207,7 +3208,7 @@
         <v>3</v>
       </c>
       <c r="H79" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3233,7 +3234,7 @@
         <v>89</v>
       </c>
       <c r="H80" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3259,7 +3260,7 @@
         <v>202</v>
       </c>
       <c r="H81" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3285,7 +3286,7 @@
         <v>160</v>
       </c>
       <c r="H82" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3311,7 +3312,7 @@
         <v>46</v>
       </c>
       <c r="H83" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3337,7 +3338,7 @@
         <v>85</v>
       </c>
       <c r="H84" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3363,7 +3364,7 @@
         <v>92</v>
       </c>
       <c r="H85" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3389,7 +3390,7 @@
         <v>157</v>
       </c>
       <c r="H86" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3415,7 +3416,7 @@
         <v>202</v>
       </c>
       <c r="H87" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3441,7 +3442,7 @@
         <v>168</v>
       </c>
       <c r="H88" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3467,7 +3468,7 @@
         <v>160</v>
       </c>
       <c r="H89" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3493,7 +3494,7 @@
         <v>3</v>
       </c>
       <c r="H90" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3519,7 +3520,7 @@
         <v>3</v>
       </c>
       <c r="H91" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3545,7 +3546,7 @@
         <v>89</v>
       </c>
       <c r="H92" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3571,7 +3572,7 @@
         <v>89</v>
       </c>
       <c r="H93" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3597,7 +3598,7 @@
         <v>157</v>
       </c>
       <c r="H94" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3623,7 +3624,7 @@
         <v>7</v>
       </c>
       <c r="H95" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3649,7 +3650,7 @@
         <v>202</v>
       </c>
       <c r="H96" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3675,7 +3676,7 @@
         <v>46</v>
       </c>
       <c r="H97" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3701,7 +3702,7 @@
         <v>157</v>
       </c>
       <c r="H98" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3727,7 +3728,7 @@
         <v>46</v>
       </c>
       <c r="H99" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3753,7 +3754,7 @@
         <v>202</v>
       </c>
       <c r="H100" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3779,7 +3780,7 @@
         <v>48</v>
       </c>
       <c r="H101" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3805,7 +3806,7 @@
         <v>74</v>
       </c>
       <c r="H102" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -3833,12 +3834,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.1640625" style="6"/>
+    <col min="1" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:71" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:71" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>188</v>
       </c>
@@ -3912,7 +3913,7 @@
       <c r="BR1" s="4"/>
       <c r="BS1" s="4"/>
     </row>
-    <row r="2" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
@@ -3984,7 +3985,7 @@
       <c r="BR2" s="7"/>
       <c r="BS2" s="7"/>
     </row>
-    <row r="3" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>189</v>
       </c>
@@ -4058,7 +4059,7 @@
       <c r="BR3" s="7"/>
       <c r="BS3" s="7"/>
     </row>
-    <row r="4" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>190</v>
       </c>
@@ -4132,7 +4133,7 @@
       <c r="BR4" s="7"/>
       <c r="BS4" s="7"/>
     </row>
-    <row r="5" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>200</v>
       </c>
@@ -4207,7 +4208,7 @@
       <c r="BS5" s="7"/>
     </row>
     <row r="6" spans="1:71" s="1" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>191</v>
       </c>
@@ -4281,7 +4282,7 @@
       <c r="BR7" s="7"/>
       <c r="BS7" s="7"/>
     </row>
-    <row r="8" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>198</v>
       </c>
@@ -4355,7 +4356,7 @@
       <c r="BR8" s="7"/>
       <c r="BS8" s="7"/>
     </row>
-    <row r="9" spans="1:71" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:71" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -4428,7 +4429,7 @@
       <c r="BR9" s="7"/>
       <c r="BS9" s="7"/>
     </row>
-    <row r="10" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>192</v>
       </c>
@@ -4502,7 +4503,7 @@
       <c r="BR10" s="7"/>
       <c r="BS10" s="7"/>
     </row>
-    <row r="11" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>201</v>
       </c>
@@ -4576,8 +4577,8 @@
       <c r="BR11" s="7"/>
       <c r="BS11" s="7"/>
     </row>
-    <row r="12" spans="1:71" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:71" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>193</v>
       </c>
@@ -4651,7 +4652,7 @@
       <c r="BR13" s="7"/>
       <c r="BS13" s="7"/>
     </row>
-    <row r="14" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>199</v>
       </c>
@@ -4725,7 +4726,7 @@
       <c r="BR14" s="7"/>
       <c r="BS14" s="7"/>
     </row>
-    <row r="15" spans="1:71" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:71" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -4797,7 +4798,7 @@
       <c r="BR15" s="7"/>
       <c r="BS15" s="7"/>
     </row>
-    <row r="16" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>182</v>
       </c>
@@ -4871,7 +4872,7 @@
       <c r="BR16" s="7"/>
       <c r="BS16" s="7"/>
     </row>
-    <row r="17" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>194</v>
       </c>
@@ -4945,7 +4946,7 @@
       <c r="BR17" s="7"/>
       <c r="BS17" s="7"/>
     </row>
-    <row r="18" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>195</v>
       </c>
@@ -5019,7 +5020,7 @@
       <c r="BR18" s="7"/>
       <c r="BS18" s="7"/>
     </row>
-    <row r="19" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>196</v>
       </c>
@@ -5093,8 +5094,8 @@
       <c r="BR19" s="7"/>
       <c r="BS19" s="7"/>
     </row>
-    <row r="20" spans="1:71" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:71" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>187</v>
       </c>
@@ -5168,7 +5169,7 @@
       <c r="BR21" s="7"/>
       <c r="BS21" s="7"/>
     </row>
-    <row r="22" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>197</v>
       </c>
